--- a/South German Credit Running RF on the new data/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
+++ b/South German Credit Running RF on the new data/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>F1_std(%)</t>
+          <t>F1 (%)_std</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AUC_std(%)</t>
+          <t>AUC (%)_std</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8508226816844543</v>
+        <v>0.8525566272754463</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00968484</v>
+        <v>0.00828739</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6804099409362567</v>
+        <v>0.6812012548854655</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02018589</v>
+        <v>0.01693686</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>700</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8154897494305235</v>
+        <v>0.815489749430524</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6480098848519903</v>
+        <v>0.6480098848519902</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -554,32 +554,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:2_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:200_cf:1_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5855866247146365</v>
+        <v>0.5507192862949655</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04086641</v>
+        <v>0.09326953</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6566284592600382</v>
+        <v>0.6544367912788965</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02288522</v>
+        <v>0.03542657</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:3_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:200_cf:2_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5991858231547761</v>
+        <v>0.6207386344808048</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03994718</v>
+        <v>0.03792578</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6564023695602643</v>
+        <v>0.6764673922568659</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0220821</v>
+        <v>0.02158263</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RF_sample:200_cf:5_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:200_cf:3_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6349631383794584</v>
+        <v>0.6140795530931537</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02207005</v>
+        <v>0.03060119</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6714820267451846</v>
+        <v>0.6701877070298125</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0149469</v>
+        <v>0.01872449</v>
       </c>
     </row>
     <row r="7">
@@ -656,32 +656,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:2_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:200_cf:5_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6386785066199969</v>
+        <v>0.6447416633640329</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02613682</v>
+        <v>0.02665543</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6745745482587586</v>
+        <v>0.6824613982508719</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01638235</v>
+        <v>0.01452219</v>
       </c>
     </row>
     <row r="8">
@@ -690,32 +690,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:3_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:300_cf:1_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>300</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6593657595390671</v>
+        <v>0.6165669548168691</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03051982</v>
+        <v>0.03359279</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6816972501183027</v>
+        <v>0.6746481588586852</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01668339</v>
+        <v>0.01669158</v>
       </c>
     </row>
     <row r="9">
@@ -724,32 +724,100 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RF_sample:300_cf:5_mean_of_30_iterations_only_cf</t>
+          <t>LR_sample:300_cf:2_mean_of_15_iterations_only_cf</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>300</v>
       </c>
       <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6420110872350118</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02575039</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6791471686208528</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01392083</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:3_mean_of_15_iterations_only_cf</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>900</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.662003143930772</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02450928</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6896436896436898</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0130074</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:5_mean_of_15_iterations_only_cf</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E11" t="n">
         <v>5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F11" t="n">
         <v>1500</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.6701026939427838</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.02279193</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6848686401317983</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.01537521</v>
+      <c r="G11" t="n">
+        <v>0.677525641863143</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01595173</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6956622325043377</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0111832</v>
       </c>
     </row>
   </sheetData>
